--- a/Opdracht04/Offerte laag.xlsx
+++ b/Opdracht04/Offerte laag.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16729"/>
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -16,7 +16,7 @@
     <sheet name="Middel" sheetId="2" r:id="rId2"/>
     <sheet name="Hoog" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="28">
   <si>
     <t>Aantal</t>
   </si>
@@ -76,9 +76,6 @@
     <t>Uren</t>
   </si>
   <si>
-    <t>Onderhoud (2 keer/ jaar)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Totaal </t>
   </si>
   <si>
@@ -86,14 +83,43 @@
   </si>
   <si>
     <t>Omschrijving</t>
+  </si>
+  <si>
+    <t>Datum: 25/04/16</t>
+  </si>
+  <si>
+    <t>Kleine Patchkast</t>
+  </si>
+  <si>
+    <t>Werkuren:</t>
+  </si>
+  <si>
+    <t>plaatsing</t>
+  </si>
+  <si>
+    <t>implementatie</t>
+  </si>
+  <si>
+    <t>testen</t>
+  </si>
+  <si>
+    <t>projectmanagment</t>
+  </si>
+  <si>
+    <t>analyse</t>
+  </si>
+  <si>
+    <t>Onderhoud (min. 2 keer/ jaar)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
+  <numFmts count="3">
     <numFmt numFmtId="6" formatCode="&quot;€&quot;\ #,##0;[Red]&quot;€&quot;\ \-#,##0"/>
+    <numFmt numFmtId="8" formatCode="&quot;€&quot;\ #,##0.00;[Red]&quot;€&quot;\ \-#,##0.00"/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -118,7 +144,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -136,8 +162,13 @@
         <fgColor theme="5"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -145,25 +176,49 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="4" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="5">
     <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
     <cellStyle name="Accent2" xfId="2" builtinId="33"/>
+    <cellStyle name="Komma" xfId="3" builtinId="3"/>
+    <cellStyle name="Notitie" xfId="4" builtinId="10"/>
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -187,7 +242,7 @@
     <tableColumn id="1" name="Product"/>
     <tableColumn id="2" name="Aantal"/>
     <tableColumn id="3" name="Prijs/Eenheid"/>
-    <tableColumn id="4" name="Totaal" dataDxfId="0">
+    <tableColumn id="4" name="Totaal" dataDxfId="1">
       <calculatedColumnFormula>Tabel1[[#This Row],[Prijs/Eenheid]]*Tabel1[[#This Row],[Aantal]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -198,6 +253,34 @@
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabel3" displayName="Tabel3" ref="B15:E18" totalsRowShown="0">
   <autoFilter ref="B15:E18"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="Omschrijving"/>
+    <tableColumn id="2" name="€/uur"/>
+    <tableColumn id="3" name="Uren"/>
+    <tableColumn id="4" name="Totaal"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabel13" displayName="Tabel13" ref="C4:F14" totalsRowShown="0">
+  <autoFilter ref="C4:F14"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="Product"/>
+    <tableColumn id="2" name="Aantal"/>
+    <tableColumn id="3" name="Prijs/Eenheid"/>
+    <tableColumn id="4" name="Totaal" dataDxfId="0">
+      <calculatedColumnFormula>Tabel13[[#This Row],[Prijs/Eenheid]]*Tabel13[[#This Row],[Aantal]]</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabel35" displayName="Tabel35" ref="C17:F20" totalsRowShown="0">
+  <autoFilter ref="C17:F20"/>
   <tableColumns count="4">
     <tableColumn id="1" name="Omschrijving"/>
     <tableColumn id="2" name="€/uur"/>
@@ -284,6 +367,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -319,6 +419,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Kantoor">
@@ -471,20 +588,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E20"/>
+  <dimension ref="B1:E26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="30" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" customWidth="1"/>
-    <col min="4" max="4" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.109375" customWidth="1"/>
+    <col min="7" max="7" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+    </row>
     <row r="2" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>1</v>
@@ -552,11 +676,11 @@
         <v>1</v>
       </c>
       <c r="D7" s="1">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="E7">
         <f>Tabel1[[#This Row],[Prijs/Eenheid]]*Tabel1[[#This Row],[Aantal]]</f>
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.3">
@@ -582,11 +706,11 @@
         <v>2</v>
       </c>
       <c r="D9" s="1">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="E9">
         <f>Tabel1[[#This Row],[Prijs/Eenheid]]*Tabel1[[#This Row],[Aantal]]</f>
-        <v>812</v>
+        <v>820</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.3">
@@ -642,12 +766,12 @@
       </c>
       <c r="E13" s="3">
         <f>E4+E5+E6+E7+E8+E9+E10+E11+E12</f>
-        <v>6398</v>
+        <v>6408</v>
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C15" t="s">
         <v>14</v>
@@ -667,66 +791,371 @@
         <v>50</v>
       </c>
       <c r="D16">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="E16">
         <f>C16*D16</f>
-        <v>10000</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="C17">
         <v>50</v>
       </c>
       <c r="D17">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="E17">
         <f>C17*D17</f>
-        <v>200</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E18">
         <f>E16+E17</f>
-        <v>10200</v>
+        <v>21000</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
       <c r="D20" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E20" s="4">
         <f>E13+E18</f>
-        <v>16598</v>
+        <v>27408</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C22" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C23" s="6"/>
+      <c r="D23" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C24" s="6"/>
+      <c r="D24" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C25" s="6"/>
+      <c r="D25" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C26" s="6"/>
+      <c r="D26" s="6" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <tableParts count="2">
-    <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="C4:F28"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="3" max="3" width="30" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6">
+        <v>4</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1433</v>
+      </c>
+      <c r="F6">
+        <f>Tabel13[[#This Row],[Prijs/Eenheid]]*Tabel13[[#This Row],[Aantal]]</f>
+        <v>5732</v>
+      </c>
+    </row>
+    <row r="7" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7">
+        <v>3</v>
+      </c>
+      <c r="E7" s="1">
+        <v>146</v>
+      </c>
+      <c r="F7" s="2">
+        <f>Tabel13[[#This Row],[Prijs/Eenheid]]*Tabel13[[#This Row],[Aantal]]</f>
+        <v>438</v>
+      </c>
+    </row>
+    <row r="8" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8" s="5">
+        <v>363.52</v>
+      </c>
+      <c r="F8">
+        <f>Tabel13[[#This Row],[Prijs/Eenheid]]*Tabel13[[#This Row],[Aantal]]</f>
+        <v>363.52</v>
+      </c>
+    </row>
+    <row r="9" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9" s="1">
+        <v>238</v>
+      </c>
+      <c r="F9">
+        <f>Tabel13[[#This Row],[Prijs/Eenheid]]*Tabel13[[#This Row],[Aantal]]</f>
+        <v>476</v>
+      </c>
+    </row>
+    <row r="10" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10">
+        <v>29</v>
+      </c>
+      <c r="E10" s="5">
+        <v>82.24</v>
+      </c>
+      <c r="F10">
+        <f>Tabel13[[#This Row],[Prijs/Eenheid]]*Tabel13[[#This Row],[Aantal]]</f>
+        <v>2384.96</v>
+      </c>
+    </row>
+    <row r="11" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11">
+        <v>3</v>
+      </c>
+      <c r="E11" s="1">
+        <v>862</v>
+      </c>
+      <c r="F11">
+        <f>Tabel13[[#This Row],[Prijs/Eenheid]]*Tabel13[[#This Row],[Aantal]]</f>
+        <v>2586</v>
+      </c>
+    </row>
+    <row r="12" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12" s="1">
+        <v>61</v>
+      </c>
+      <c r="F12" s="2">
+        <f>Tabel13[[#This Row],[Prijs/Eenheid]]*Tabel13[[#This Row],[Aantal]]</f>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13" s="1">
+        <v>25</v>
+      </c>
+      <c r="F13" s="2">
+        <f>Tabel13[[#This Row],[Prijs/Eenheid]]*Tabel13[[#This Row],[Aantal]]</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14">
+        <v>107</v>
+      </c>
+      <c r="E14" s="1">
+        <v>21</v>
+      </c>
+      <c r="F14" s="2">
+        <f>Tabel13[[#This Row],[Prijs/Eenheid]]*Tabel13[[#This Row],[Aantal]]</f>
+        <v>2247</v>
+      </c>
+    </row>
+    <row r="15" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F15" s="3">
+        <f>F6+F8+F9+F10+F11+F12+F13+F14</f>
+        <v>13875.48</v>
+      </c>
+    </row>
+    <row r="17" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C17" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" t="s">
+        <v>15</v>
+      </c>
+      <c r="F17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18">
+        <v>50</v>
+      </c>
+      <c r="E18">
+        <v>400</v>
+      </c>
+      <c r="F18">
+        <f>D18*E18</f>
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="19" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19">
+        <v>50</v>
+      </c>
+      <c r="E19">
+        <v>20</v>
+      </c>
+      <c r="F19">
+        <f>D19*E19</f>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="20" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="E20" t="s">
+        <v>16</v>
+      </c>
+      <c r="F20">
+        <f>F18+F19</f>
+        <v>21000</v>
+      </c>
+    </row>
+    <row r="22" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F22" s="4">
+        <f>F15+F20</f>
+        <v>34875.479999999996</v>
+      </c>
+    </row>
+    <row r="24" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="D24" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="D25" s="6"/>
+      <c r="E25" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="D26" s="6"/>
+      <c r="E26" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="D27" s="6"/>
+      <c r="E27" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="D28" s="6"/>
+      <c r="E28" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <tableParts count="2">
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+  </tableParts>
 </worksheet>
 </file>
 

--- a/Opdracht04/Offerte laag.xlsx
+++ b/Opdracht04/Offerte laag.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14376" windowHeight="4176"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14376" windowHeight="4176" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Laag" sheetId="1" r:id="rId1"/>
     <sheet name="Middel" sheetId="2" r:id="rId2"/>
     <sheet name="Hoog" sheetId="3" r:id="rId3"/>
+    <sheet name="logisch model laag" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="35">
   <si>
     <t>Aantal</t>
   </si>
@@ -110,6 +111,27 @@
   </si>
   <si>
     <t>Onderhoud (min. 2 keer/ jaar)</t>
+  </si>
+  <si>
+    <t>IP-adressen</t>
+  </si>
+  <si>
+    <t>Fa0/0</t>
+  </si>
+  <si>
+    <t>Fa0/1</t>
+  </si>
+  <si>
+    <t>192.168.1.1</t>
+  </si>
+  <si>
+    <t>SwitchProductie</t>
+  </si>
+  <si>
+    <t>192.168.1.2</t>
+  </si>
+  <si>
+    <t>Kabel /20m (schatting)</t>
   </si>
 </sst>
 </file>
@@ -215,7 +237,10 @@
     <cellStyle name="Notitie" xfId="4" builtinId="10"/>
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -242,7 +267,7 @@
     <tableColumn id="1" name="Product"/>
     <tableColumn id="2" name="Aantal"/>
     <tableColumn id="3" name="Prijs/Eenheid"/>
-    <tableColumn id="4" name="Totaal" dataDxfId="1">
+    <tableColumn id="4" name="Totaal" dataDxfId="2">
       <calculatedColumnFormula>Tabel1[[#This Row],[Prijs/Eenheid]]*Tabel1[[#This Row],[Aantal]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -270,7 +295,7 @@
     <tableColumn id="1" name="Product"/>
     <tableColumn id="2" name="Aantal"/>
     <tableColumn id="3" name="Prijs/Eenheid"/>
-    <tableColumn id="4" name="Totaal" dataDxfId="0">
+    <tableColumn id="4" name="Totaal" dataDxfId="1">
       <calculatedColumnFormula>Tabel13[[#This Row],[Prijs/Eenheid]]*Tabel13[[#This Row],[Aantal]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -281,6 +306,34 @@
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabel35" displayName="Tabel35" ref="C17:F20" totalsRowShown="0">
   <autoFilter ref="C17:F20"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="Omschrijving"/>
+    <tableColumn id="2" name="€/uur"/>
+    <tableColumn id="3" name="Uren"/>
+    <tableColumn id="4" name="Totaal"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tabel136" displayName="Tabel136" ref="B2:E12" totalsRowShown="0">
+  <autoFilter ref="B2:E12"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="Product"/>
+    <tableColumn id="2" name="Aantal"/>
+    <tableColumn id="3" name="Prijs/Eenheid"/>
+    <tableColumn id="4" name="Totaal" dataDxfId="0">
+      <calculatedColumnFormula>Tabel136[[#This Row],[Prijs/Eenheid]]*Tabel136[[#This Row],[Aantal]]</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Tabel359" displayName="Tabel359" ref="B15:E18" totalsRowShown="0">
+  <autoFilter ref="B15:E18"/>
   <tableColumns count="4">
     <tableColumn id="1" name="Omschrijving"/>
     <tableColumn id="2" name="€/uur"/>
@@ -590,8 +643,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:E26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -880,7 +933,7 @@
   <dimension ref="C4:F28"/>
   <sheetViews>
     <sheetView topLeftCell="A2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1161,14 +1214,332 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B2:E26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="30" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4">
+        <v>4</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1452</v>
+      </c>
+      <c r="E4">
+        <f>Tabel136[[#This Row],[Prijs/Eenheid]]*Tabel136[[#This Row],[Aantal]]</f>
+        <v>5808</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5" s="1">
+        <v>146</v>
+      </c>
+      <c r="E5" s="2">
+        <f>Tabel136[[#This Row],[Prijs/Eenheid]]*Tabel136[[#This Row],[Aantal]]</f>
+        <v>438</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" s="5">
+        <v>363.52</v>
+      </c>
+      <c r="E6">
+        <f>Tabel136[[#This Row],[Prijs/Eenheid]]*Tabel136[[#This Row],[Aantal]]</f>
+        <v>363.52</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7" s="1">
+        <v>771</v>
+      </c>
+      <c r="E7">
+        <f>Tabel136[[#This Row],[Prijs/Eenheid]]*Tabel136[[#This Row],[Aantal]]</f>
+        <v>1542</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8">
+        <v>29</v>
+      </c>
+      <c r="D8" s="5">
+        <v>279.83999999999997</v>
+      </c>
+      <c r="E8">
+        <f>Tabel136[[#This Row],[Prijs/Eenheid]]*Tabel136[[#This Row],[Aantal]]</f>
+        <v>8115.36</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9">
+        <v>3</v>
+      </c>
+      <c r="D9" s="1">
+        <v>862</v>
+      </c>
+      <c r="E9">
+        <f>Tabel136[[#This Row],[Prijs/Eenheid]]*Tabel136[[#This Row],[Aantal]]</f>
+        <v>2586</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10" s="1">
+        <v>61</v>
+      </c>
+      <c r="E10" s="2">
+        <f>Tabel136[[#This Row],[Prijs/Eenheid]]*Tabel136[[#This Row],[Aantal]]</f>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1">
+        <v>25</v>
+      </c>
+      <c r="E11" s="2">
+        <f>Tabel136[[#This Row],[Prijs/Eenheid]]*Tabel136[[#This Row],[Aantal]]</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12">
+        <v>107</v>
+      </c>
+      <c r="D12" s="1">
+        <v>45</v>
+      </c>
+      <c r="E12" s="2">
+        <f>Tabel136[[#This Row],[Prijs/Eenheid]]*Tabel136[[#This Row],[Aantal]]</f>
+        <v>4815</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="3">
+        <f>E4+E6+E7+E8+E9+E10+E11+E12</f>
+        <v>23315.88</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16">
+        <v>50</v>
+      </c>
+      <c r="D16">
+        <v>400</v>
+      </c>
+      <c r="E16">
+        <f>C16*D16</f>
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17">
+        <v>50</v>
+      </c>
+      <c r="D17">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <f>C17*D17</f>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D18" t="s">
+        <v>16</v>
+      </c>
+      <c r="E18">
+        <f>E16+E17</f>
+        <v>21000</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E20" s="4">
+        <f>E13+E18</f>
+        <v>44315.880000000005</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C22" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C23" s="6"/>
+      <c r="D23" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C24" s="6"/>
+      <c r="D24" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C25" s="6"/>
+      <c r="D25" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C26" s="6"/>
+      <c r="D26" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <tableParts count="2">
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>